--- a/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>KOAN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,59 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -725,25 +728,28 @@
         <v>300</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,8 +777,11 @@
       <c r="K9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -783,25 +792,28 @@
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
       <c r="I14" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
         <v>-100</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,20 +1042,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1037,10 +1070,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1062,19 +1098,22 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1082,52 +1121,58 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,19 +1424,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1385,39 +1454,45 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1543,28 +1629,31 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,13 +1681,16 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1667,20 +1765,23 @@
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1688,39 +1789,42 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>400</v>
       </c>
       <c r="F47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G47" s="3">
         <v>500</v>
@@ -1737,8 +1841,11 @@
       <c r="K47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1754,20 +1861,23 @@
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,13 +2033,16 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>500</v>
@@ -1932,16 +2057,19 @@
         <v>500</v>
       </c>
       <c r="I54" s="3">
+        <v>500</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>500</v>
       </c>
       <c r="K54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1984,27 +2114,30 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2016,21 +2149,24 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -2039,11 +2175,11 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
@@ -2051,39 +2187,45 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
       </c>
       <c r="G60" s="3">
+        <v>400</v>
+      </c>
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
       </c>
       <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>100</v>
-      </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
-        <v>100</v>
-      </c>
       <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,28 +2832,29 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,23 +3022,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -2836,10 +3052,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,25 +3402,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -3181,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>KOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,72 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
@@ -731,25 +739,31 @@
         <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>300</v>
+      </c>
+      <c r="N8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,13 +794,19 @@
       <c r="L9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -795,25 +815,31 @@
         <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,31 +939,37 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +1017,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,31 +1066,37 @@
         <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,26 +1109,28 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1073,10 +1141,16 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1101,78 +1175,96 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,25 +1561,31 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1457,42 +1597,54 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,25 +1792,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1650,10 +1824,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,19 +1864,25 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1940,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1768,37 +1966,43 @@
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -1810,10 +2014,16 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1821,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>500</v>
       </c>
       <c r="I47" s="3">
         <v>500</v>
@@ -1844,40 +2054,52 @@
       <c r="L47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>500</v>
+      </c>
+      <c r="N47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,31 +2206,37 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,19 +2282,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>500</v>
@@ -2060,16 +2312,22 @@
         <v>500</v>
       </c>
       <c r="J54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K54" s="3">
         <v>500</v>
       </c>
       <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,13 +2356,15 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -2117,7 +2379,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2126,24 +2388,30 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2152,80 +2420,98 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>600</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>600</v>
+      </c>
+      <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2542,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>600</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>600</v>
+      </c>
+      <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-18100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-15500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-15200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>100</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
       <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>100</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3453,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3034,19 +3468,19 @@
         <v>-400</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3055,10 +3489,16 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3621,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3659,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,26 +3827,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3373,8 +3865,14 @@
       <c r="L100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3903,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>KOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,79 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>200</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
@@ -742,36 +746,39 @@
         <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -779,11 +786,11 @@
       <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -800,16 +807,19 @@
       <c r="N9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>200</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -817,29 +827,32 @@
       <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,31 +965,34 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
       <c r="L14" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>-100</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,25 +1144,26 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-700</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1147,10 +1181,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1181,14 +1218,17 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1199,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1210,11 +1250,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1222,49 +1262,55 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="F23" s="3">
         <v>-600</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="F26" s="3">
         <v>-600</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="F27" s="3">
         <v>-600</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1464,20 +1525,20 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,25 +1634,28 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>700</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1603,48 +1673,54 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1200</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="F33" s="3">
         <v>-600</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1200</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="F35" s="3">
         <v>-600</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1882,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,55 +2042,61 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
@@ -2002,28 +2104,31 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2037,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>400</v>
       </c>
       <c r="I47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J47" s="3">
         <v>500</v>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2090,16 +2198,19 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2238,8 +2358,8 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,22 +2411,25 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>500</v>
@@ -2318,16 +2444,19 @@
         <v>500</v>
       </c>
       <c r="L54" s="3">
+        <v>500</v>
+      </c>
+      <c r="M54" s="3">
         <v>600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>500</v>
       </c>
       <c r="N54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,16 +2488,17 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -2385,19 +2516,22 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,16 +2539,16 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2426,16 +2560,19 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2443,13 +2580,13 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -2458,11 +2595,11 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
@@ -2470,48 +2607,54 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-21000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
       <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
       <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1200</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="F81" s="3">
         <v>-600</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>900</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,34 +4158,37 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -3945,6 +4197,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>KOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -752,25 +759,31 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>400</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,11 +793,11 @@
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>8</v>
@@ -792,11 +805,11 @@
       <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -810,8 +823,14 @@
       <c r="O9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,38 +840,44 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>200</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -959,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -968,31 +1007,37 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1097,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1155,46 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
-      </c>
       <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1154,20 +1221,20 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1184,10 +1251,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1221,14 +1294,20 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1242,75 +1321,87 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1525,26 +1646,26 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1646,20 +1785,20 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1676,51 +1815,63 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,34 +2052,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -1920,10 +2093,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,28 +2142,34 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2004,31 +2189,37 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2045,8 +2236,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2071,49 +2268,55 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2125,10 +2328,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2145,16 +2354,16 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>500</v>
       </c>
       <c r="L47" s="3">
         <v>500</v>
@@ -2168,31 +2377,37 @@
       <c r="O47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2201,16 +2416,22 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2361,11 +2600,11 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,28 +2659,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>500</v>
@@ -2447,16 +2698,22 @@
         <v>500</v>
       </c>
       <c r="M54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N54" s="3">
         <v>500</v>
       </c>
       <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2748,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2498,13 +2759,13 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -2519,7 +2780,7 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -2528,33 +2789,39 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2563,98 +2830,116 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
       </c>
       <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-21300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-21000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-19800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-19200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-18500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-18300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-18100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-15000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-15100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-15200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>100</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
-        <v>100</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,31 +3825,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,37 +4103,43 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3715,10 +4148,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,31 +4173,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3898,8 +4357,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,35 +4564,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4120,8 +4611,14 @@
       <c r="O100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>KOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,86 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,30 +773,36 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -811,11 +825,11 @@
       <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -829,8 +843,14 @@
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,26 +878,32 @@
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,46 +1038,52 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1151,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,46 +1162,52 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1215,52 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,26 +1289,26 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-600</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1257,21 +1325,27 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+      <c r="E21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -1300,22 +1374,28 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1327,81 +1407,93 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,16 +1751,22 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1653,25 +1775,25 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>200</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,26 +1925,26 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>600</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1821,57 +1961,69 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,40 +2226,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2099,10 +2273,16 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,34 +2328,40 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2195,19 +2381,25 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
+      <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -2221,11 +2413,11 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2242,31 +2434,37 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2274,55 +2472,61 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1800</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2334,10 +2538,16 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2360,16 +2570,16 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>500</v>
       </c>
       <c r="N47" s="3">
         <v>500</v>
@@ -2383,19 +2593,25 @@
       <c r="Q47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>500</v>
+      </c>
+      <c r="S47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
@@ -2409,11 +2625,11 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2422,16 +2638,22 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2805,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2606,11 +2846,11 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,34 +2911,40 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
       <c r="J54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>500</v>
@@ -2704,16 +2956,22 @@
         <v>500</v>
       </c>
       <c r="O54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P54" s="3">
         <v>500</v>
       </c>
       <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,28 +3010,30 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2786,7 +3048,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -2795,39 +3057,45 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2836,110 +3104,128 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>600</v>
+      </c>
+      <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3271,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>600</v>
+      </c>
+      <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-22200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-21100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-21300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-21000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-19200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-18500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-18300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-18100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-15500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-15200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-15000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-15200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,19 +4223,21 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
@@ -3853,11 +4251,11 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,43 +4537,49 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-400</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4154,10 +4588,16 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,19 +4615,21 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -4201,11 +4643,11 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4770,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,41 +5056,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>900</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>600</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +5109,14 @@
       <c r="Q100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>KOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,33 +782,36 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>200</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
       <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>8</v>
@@ -831,8 +837,8 @@
       <c r="M9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
+      <c r="N9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -849,16 +855,19 @@
       <c r="S9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
@@ -884,26 +893,29 @@
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
+      <c r="N10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,49 +1060,52 @@
         <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R14" s="3">
         <v>-100</v>
       </c>
       <c r="S14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,20 +1115,20 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1244,55 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,29 +1322,29 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1331,10 +1364,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,14 +1378,14 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1380,14 +1416,17 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,11 +1434,11 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1413,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1424,11 +1463,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1436,64 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E23" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,8 +1828,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1778,25 +1838,25 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>200</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-100</v>
       </c>
       <c r="K29" s="3">
         <v>-100</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,29 +1994,29 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F32" s="3">
         <v>3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1967,63 +2036,69 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-600</v>
       </c>
       <c r="K33" s="3">
         <v>-600</v>
       </c>
       <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-600</v>
       </c>
       <c r="K35" s="3">
         <v>-600</v>
       </c>
       <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,11 +2440,11 @@
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2361,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2401,8 +2496,8 @@
       <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
+      <c r="G44" s="3">
+        <v>200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -2419,8 +2514,8 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2440,16 +2535,19 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -2457,17 +2555,17 @@
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2478,47 +2576,50 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
@@ -2526,28 +2627,31 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2576,13 +2680,13 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>400</v>
       </c>
       <c r="N47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O47" s="3">
         <v>500</v>
@@ -2599,8 +2703,11 @@
       <c r="S47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,8 +2720,8 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
@@ -2631,8 +2738,8 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2644,16 +2751,19 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2852,8 +2971,8 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,37 +3039,40 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>500</v>
@@ -2962,16 +3087,19 @@
         <v>500</v>
       </c>
       <c r="Q54" s="3">
+        <v>500</v>
+      </c>
+      <c r="R54" s="3">
         <v>600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>500</v>
       </c>
       <c r="S54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,19 +3141,20 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3033,10 +3163,10 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3054,19 +3184,22 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3077,28 +3210,28 @@
         <v>1900</v>
       </c>
       <c r="F58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>900</v>
       </c>
       <c r="J58" s="3">
+        <v>900</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3110,45 +3243,48 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
       </c>
       <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3157,11 +3293,11 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
@@ -3169,63 +3305,69 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
-        <v>100</v>
-      </c>
       <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-600</v>
       </c>
       <c r="K81" s="3">
         <v>-600</v>
       </c>
       <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4239,8 +4437,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
@@ -4257,8 +4455,8 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,47 +4756,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4594,10 +4810,13 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4631,8 +4851,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -4649,8 +4869,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,49 +5416,52 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5219,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>KOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,25 +793,31 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
       <c r="R8" s="3">
+        <v>400</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
-      </c>
-      <c r="S8" s="3">
-        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,11 +827,11 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>8</v>
@@ -840,11 +854,11 @@
       <c r="N9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>100</v>
+      <c r="O9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -858,8 +872,14 @@
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,11 +889,11 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>8</v>
@@ -896,26 +916,32 @@
       <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,55 +1097,61 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1115,11 +1161,11 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1130,11 +1176,11 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1231,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1304,61 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,35 +1390,35 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1367,10 +1435,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,20 +1452,20 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1419,32 +1493,38 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1455,90 +1535,102 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,38 +1953,38 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-100</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,35 +2134,35 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2039,66 +2179,78 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2486,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,40 +2497,40 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2368,10 +2542,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2443,27 +2629,27 @@
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2482,16 +2668,22 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -2499,11 +2691,11 @@
       <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+      <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -2517,11 +2709,11 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2549,29 +2747,29 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2579,23 +2777,29 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,40 +2807,40 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2648,10 +2852,16 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2683,16 +2893,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>400</v>
-      </c>
-      <c r="O47" s="3">
-        <v>500</v>
-      </c>
-      <c r="P47" s="3">
-        <v>500</v>
       </c>
       <c r="Q47" s="3">
         <v>500</v>
@@ -2706,8 +2916,14 @@
       <c r="T47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>500</v>
+      </c>
+      <c r="V47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2723,11 +2939,11 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -2741,11 +2957,11 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2754,16 +2970,22 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,31 +3164,37 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2974,11 +3214,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3288,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,34 +3303,34 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>500</v>
       </c>
       <c r="O54" s="3">
         <v>500</v>
@@ -3090,16 +3342,22 @@
         <v>500</v>
       </c>
       <c r="R54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S54" s="3">
         <v>500</v>
       </c>
       <c r="T54" s="3">
+        <v>600</v>
+      </c>
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,28 +3413,28 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3187,7 +3449,7 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3196,49 +3458,55 @@
         <v>300</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="E58" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="F58" s="3">
         <v>1900</v>
       </c>
       <c r="G58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -3246,128 +3514,146 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
       <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>600</v>
+      </c>
+      <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>600</v>
+      </c>
+      <c r="S66" s="3">
+        <v>400</v>
+      </c>
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-26000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-27400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-27500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-22200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-21100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-21300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-19800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-18100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-15200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-15000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-15100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-15200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>300</v>
       </c>
       <c r="S76" s="3">
         <v>100</v>
       </c>
       <c r="T76" s="3">
+        <v>300</v>
+      </c>
+      <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4440,11 +4838,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -4458,11 +4856,11 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,43 +5202,43 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4813,10 +5247,16 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,16 +5277,18 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4854,11 +5296,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -4872,11 +5314,11 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,49 +5793,55 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5363,8 +5855,14 @@
       <c r="T100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>KOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -799,25 +803,28 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>200</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
       <c r="U8" s="3">
+        <v>200</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -833,8 +840,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>8</v>
@@ -860,8 +867,8 @@
       <c r="P9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
+      <c r="Q9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -878,8 +885,11 @@
       <c r="V9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,8 +905,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>8</v>
@@ -922,26 +932,29 @@
       <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
+      <c r="Q10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,13 +1105,16 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1103,55 +1123,58 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>-100</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
-        <v>100</v>
-      </c>
       <c r="T14" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U14" s="3">
         <v>-100</v>
       </c>
       <c r="V14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1167,8 +1190,8 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1182,8 +1205,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,70 +1259,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
       </c>
       <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
       <c r="U17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,61 +1334,64 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-500</v>
       </c>
       <c r="M18" s="3">
         <v>-500</v>
       </c>
       <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,38 +1424,38 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="F20" s="3">
         <v>1200</v>
       </c>
       <c r="G20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1441,10 +1475,13 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,23 +1489,23 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1499,35 +1536,38 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
+      <c r="U21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1541,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1552,11 +1592,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1564,73 +1604,79 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1959,8 +2020,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1969,25 +2030,25 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>200</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-100</v>
       </c>
       <c r="N29" s="3">
         <v>-100</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,38 +2204,38 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="F32" s="3">
         <v>-1200</v>
       </c>
       <c r="G32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H32" s="3">
         <v>3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2185,72 +2255,78 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-600</v>
       </c>
       <c r="N33" s="3">
         <v>-600</v>
       </c>
       <c r="O33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-600</v>
       </c>
       <c r="N35" s="3">
         <v>-600</v>
       </c>
       <c r="O35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,13 +2702,16 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
@@ -2635,11 +2728,11 @@
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2648,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2674,19 +2767,22 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -2697,8 +2793,8 @@
       <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+      <c r="J44" s="3">
+        <v>200</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -2715,8 +2811,8 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2753,8 +2852,8 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -2762,17 +2861,17 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2783,56 +2882,59 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
@@ -2840,28 +2942,31 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2899,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>400</v>
       </c>
       <c r="Q47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R47" s="3">
         <v>500</v>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2945,8 +3053,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
@@ -2963,8 +3071,8 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2976,16 +3084,19 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3196,8 +3316,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -3220,8 +3340,8 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,46 +3417,49 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>500</v>
@@ -3348,16 +3474,19 @@
         <v>500</v>
       </c>
       <c r="T54" s="3">
+        <v>500</v>
+      </c>
+      <c r="U54" s="3">
         <v>600</v>
-      </c>
-      <c r="U54" s="3">
-        <v>500</v>
       </c>
       <c r="V54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,28 +3534,29 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3434,10 +3565,10 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -3455,30 +3586,33 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1900</v>
       </c>
       <c r="G58" s="3">
         <v>1900</v>
@@ -3487,28 +3621,28 @@
         <v>1900</v>
       </c>
       <c r="I58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>900</v>
       </c>
       <c r="L58" s="3">
         <v>900</v>
       </c>
       <c r="M58" s="3">
+        <v>900</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3520,54 +3654,57 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>800</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
       </c>
       <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3576,11 +3713,11 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
@@ -3588,72 +3725,78 @@
         <v>100</v>
       </c>
       <c r="V59" s="3">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
       <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
-        <v>100</v>
-      </c>
       <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-600</v>
       </c>
       <c r="N81" s="3">
         <v>-600</v>
       </c>
       <c r="O81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4844,8 +5043,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -4862,8 +5061,8 @@
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5407,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5208,41 +5425,41 @@
         <v>-500</v>
       </c>
       <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5253,10 +5470,13 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5290,8 +5511,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5302,8 +5523,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5320,8 +5541,8 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,58 +6172,61 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>KOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -806,25 +809,28 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
       </c>
       <c r="V8" s="3">
+        <v>200</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,8 +849,8 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>8</v>
@@ -870,8 +876,8 @@
       <c r="Q9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
+      <c r="R9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -888,8 +894,11 @@
       <c r="W9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -908,8 +917,8 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>8</v>
@@ -935,26 +944,29 @@
       <c r="Q10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
+      <c r="R10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,17 +1124,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1126,55 +1145,58 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>-100</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
-        <v>100</v>
-      </c>
       <c r="U14" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V14" s="3">
         <v>-100</v>
       </c>
       <c r="W14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1193,8 +1215,8 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1208,8 +1230,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
       <c r="V17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,64 +1363,67 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-500</v>
       </c>
       <c r="O18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1427,38 +1460,38 @@
         <v>500</v>
       </c>
       <c r="F20" s="3">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3">
         <v>1200</v>
       </c>
       <c r="H20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1478,10 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1489,26 +1525,26 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1539,14 +1575,17 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
+      <c r="V21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1554,23 +1593,23 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1584,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1595,11 +1634,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1607,76 +1646,82 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2023,8 +2083,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2033,25 +2093,25 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>200</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-100</v>
       </c>
       <c r="O29" s="3">
         <v>-100</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2207,38 +2276,38 @@
         <v>-500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
       <c r="G32" s="3">
         <v>-1200</v>
       </c>
       <c r="H32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2258,75 +2327,81 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-600</v>
       </c>
       <c r="O33" s="3">
         <v>-600</v>
       </c>
       <c r="P33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-600</v>
       </c>
       <c r="O35" s="3">
         <v>-600</v>
       </c>
       <c r="P35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,16 +2794,19 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>8</v>
@@ -2731,11 +2823,11 @@
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2744,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2779,13 +2874,13 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -2796,8 +2891,8 @@
       <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="K44" s="3">
+        <v>200</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -2814,8 +2909,8 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2855,8 +2953,8 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2864,17 +2962,17 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2885,59 +2983,62 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
@@ -2945,28 +3046,31 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3007,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>400</v>
       </c>
       <c r="R47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S47" s="3">
         <v>500</v>
@@ -3030,8 +3134,11 @@
       <c r="W47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3056,8 +3163,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
@@ -3074,8 +3181,8 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3087,16 +3194,19 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3319,8 +3438,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
@@ -3343,8 +3462,8 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,49 +3542,52 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>500</v>
@@ -3477,16 +3602,19 @@
         <v>500</v>
       </c>
       <c r="U54" s="3">
+        <v>500</v>
+      </c>
+      <c r="V54" s="3">
         <v>600</v>
-      </c>
-      <c r="V54" s="3">
-        <v>500</v>
       </c>
       <c r="W54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3544,22 +3674,22 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3568,10 +3698,10 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -3589,19 +3719,22 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3609,13 +3742,13 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1900</v>
       </c>
       <c r="H58" s="3">
         <v>1900</v>
@@ -3624,28 +3757,28 @@
         <v>1900</v>
       </c>
       <c r="J58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>900</v>
       </c>
       <c r="M58" s="3">
         <v>900</v>
       </c>
       <c r="N58" s="3">
+        <v>900</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3657,57 +3790,60 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
       <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
       </c>
       <c r="N59" s="3">
+        <v>800</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3716,11 +3852,11 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
-      </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
@@ -3728,75 +3864,81 @@
         <v>100</v>
       </c>
       <c r="W59" s="3">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
       <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
       </c>
       <c r="S66" s="3">
+        <v>400</v>
+      </c>
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-15000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
-        <v>100</v>
-      </c>
       <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
-        <v>100</v>
-      </c>
       <c r="W76" s="3">
+        <v>100</v>
+      </c>
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-600</v>
       </c>
       <c r="O81" s="3">
         <v>-600</v>
       </c>
       <c r="P81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5046,8 +5244,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
@@ -5064,8 +5262,8 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,13 +5623,16 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
@@ -5428,41 +5644,41 @@
         <v>-500</v>
       </c>
       <c r="H89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -5473,10 +5689,13 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,19 +5719,20 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5526,8 +5746,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -5544,8 +5764,8 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,61 +6423,64 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -6238,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KOAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>KOAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,112 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -812,25 +820,31 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
       </c>
       <c r="V8" s="3">
+        <v>400</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
-      </c>
-      <c r="W8" s="3">
-        <v>300</v>
       </c>
       <c r="X8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,11 +866,11 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>8</v>
@@ -879,11 +893,11 @@
       <c r="R9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
-      <c r="T9" s="3">
-        <v>100</v>
+      <c r="S9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
@@ -897,8 +911,14 @@
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -920,11 +940,11 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>8</v>
@@ -947,26 +967,32 @@
       <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,84 +1161,96 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
-        <v>100</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1218,11 +1264,11 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1233,11 +1279,11 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1338,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,67 +1349,73 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1423,73 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,47 +1525,47 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1514,10 +1582,16 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,32 +1599,32 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-5200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1578,14 +1652,20 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,29 +1673,29 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1626,102 +1706,114 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,38 +2208,38 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-100</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,47 +2413,47 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2330,78 +2470,90 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,61 +2833,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2727,10 +2901,16 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,22 +2977,28 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
@@ -2826,26 +3012,26 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2865,28 +3051,34 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
@@ -2894,11 +3086,11 @@
       <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>200</v>
+      </c>
+      <c r="M44" s="3">
+        <v>200</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
@@ -2912,11 +3104,11 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2933,16 +3125,22 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2956,29 +3154,29 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2986,76 +3184,82 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
+        <v>500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -3067,10 +3271,16 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3114,16 +3324,16 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>400</v>
-      </c>
-      <c r="S47" s="3">
-        <v>500</v>
-      </c>
-      <c r="T47" s="3">
-        <v>500</v>
       </c>
       <c r="U47" s="3">
         <v>500</v>
@@ -3137,8 +3347,14 @@
       <c r="X47" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3166,11 +3382,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
@@ -3184,11 +3400,11 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3197,16 +3413,22 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3441,11 +3681,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
@@ -3465,11 +3705,11 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,55 +3791,61 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>500</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
       </c>
       <c r="I54" s="3">
+        <v>500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>300</v>
+      </c>
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>500</v>
@@ -3605,16 +3857,22 @@
         <v>500</v>
       </c>
       <c r="V54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W54" s="3">
         <v>500</v>
       </c>
       <c r="X54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3925,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,10 +3936,10 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3686,28 +3948,28 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3722,7 +3984,7 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -3731,60 +3993,66 @@
         <v>300</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1900</v>
       </c>
       <c r="J58" s="3">
         <v>1900</v>
       </c>
       <c r="K58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3793,152 +4061,170 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
-        <v>100</v>
-      </c>
-      <c r="V59" s="3">
-        <v>100</v>
-      </c>
       <c r="W59" s="3">
         <v>100</v>
       </c>
       <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>600</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
       </c>
       <c r="V60" s="3">
+        <v>600</v>
+      </c>
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4291,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>600</v>
       </c>
       <c r="U66" s="3">
         <v>400</v>
       </c>
       <c r="V66" s="3">
+        <v>600</v>
+      </c>
+      <c r="W66" s="3">
+        <v>400</v>
+      </c>
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-25300</v>
+        <v>-26100</v>
       </c>
       <c r="E72" s="3">
-        <v>-25200</v>
+        <v>-25700</v>
       </c>
       <c r="F72" s="3">
         <v>-25300</v>
       </c>
       <c r="G72" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-25500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-26000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-27400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-27500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-22200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-21300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-21000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-19800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-18500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-18300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-18100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-15500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-15200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-15000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-15100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-15200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3">
-        <v>100</v>
-      </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
       <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
-        <v>100</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
+        <v>100</v>
+      </c>
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
-        <v>100</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5247,11 +5645,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
@@ -5265,11 +5663,11 @@
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,10 +6069,10 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
@@ -5647,43 +6081,43 @@
         <v>-500</v>
       </c>
       <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="R89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -5692,10 +6126,16 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5749,11 +6191,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -5767,11 +6209,11 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6378,19 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,62 +6776,68 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>700</v>
-      </c>
-      <c r="F100" s="3">
-        <v>400</v>
       </c>
       <c r="G100" s="3">
         <v>700</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6850,14 @@
       <c r="X100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6924,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>200</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
